--- a/Data/Output/Yearly-Report-2023-RO254678.xlsx
+++ b/Data/Output/Yearly-Report-2023-RO254678.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<x:sst xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="77" uniqueCount="77">
+<x:sst xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="72" uniqueCount="72">
   <x:si>
     <x:t>InvoiceNumber</x:t>
   </x:si>
@@ -79,61 +79,46 @@
     <x:t>CAD</x:t>
   </x:si>
   <x:si>
-    <x:t>533442</x:t>
+    <x:t>102286</x:t>
+  </x:si>
+  <x:si>
+    <x:t>IT Support</x:t>
+  </x:si>
+  <x:si>
+    <x:t>2017-02-04</x:t>
+  </x:si>
+  <x:si>
+    <x:t>85862</x:t>
+  </x:si>
+  <x:si>
+    <x:t>17172.4</x:t>
+  </x:si>
+  <x:si>
+    <x:t>103034</x:t>
+  </x:si>
+  <x:si>
+    <x:t>EUR</x:t>
+  </x:si>
+  <x:si>
+    <x:t>768794</x:t>
+  </x:si>
+  <x:si>
+    <x:t>2017-01-10</x:t>
+  </x:si>
+  <x:si>
+    <x:t>44416</x:t>
+  </x:si>
+  <x:si>
+    <x:t>8883.2</x:t>
+  </x:si>
+  <x:si>
+    <x:t>53299.2</x:t>
+  </x:si>
+  <x:si>
+    <x:t>300111</x:t>
   </x:si>
   <x:si>
     <x:t>Professional Services</x:t>
-  </x:si>
-  <x:si>
-    <x:t>2017-12-22</x:t>
-  </x:si>
-  <x:si>
-    <x:t>116433</x:t>
-  </x:si>
-  <x:si>
-    <x:t>23286.6</x:t>
-  </x:si>
-  <x:si>
-    <x:t>139720</x:t>
-  </x:si>
-  <x:si>
-    <x:t>102286</x:t>
-  </x:si>
-  <x:si>
-    <x:t>IT Support</x:t>
-  </x:si>
-  <x:si>
-    <x:t>2017-02-04</x:t>
-  </x:si>
-  <x:si>
-    <x:t>85862</x:t>
-  </x:si>
-  <x:si>
-    <x:t>17172.4</x:t>
-  </x:si>
-  <x:si>
-    <x:t>103034</x:t>
-  </x:si>
-  <x:si>
-    <x:t>EUR</x:t>
-  </x:si>
-  <x:si>
-    <x:t>768794</x:t>
-  </x:si>
-  <x:si>
-    <x:t>2017-01-10</x:t>
-  </x:si>
-  <x:si>
-    <x:t>44416</x:t>
-  </x:si>
-  <x:si>
-    <x:t>8883.2</x:t>
-  </x:si>
-  <x:si>
-    <x:t>53299.2</x:t>
-  </x:si>
-  <x:si>
-    <x:t>300111</x:t>
   </x:si>
   <x:si>
     <x:t>2017-07-06</x:t>
@@ -595,7 +580,7 @@
   <x:sheetPr>
     <x:outlinePr summaryBelow="1" summaryRight="1"/>
   </x:sheetPr>
-  <x:dimension ref="A1:G13"/>
+  <x:dimension ref="A1:G12"/>
   <x:sheetViews>
     <x:sheetView workbookViewId="0"/>
   </x:sheetViews>
@@ -690,15 +675,15 @@
         <x:v>26</x:v>
       </x:c>
       <x:c r="G4" s="0" t="s">
-        <x:v>20</x:v>
+        <x:v>27</x:v>
       </x:c>
     </x:row>
     <x:row r="5" spans="1:7">
       <x:c r="A5" s="0" t="s">
-        <x:v>27</x:v>
+        <x:v>28</x:v>
       </x:c>
       <x:c r="B5" s="0" t="s">
-        <x:v>28</x:v>
+        <x:v>15</x:v>
       </x:c>
       <x:c r="C5" s="0" t="s">
         <x:v>29</x:v>
@@ -713,15 +698,15 @@
         <x:v>32</x:v>
       </x:c>
       <x:c r="G5" s="0" t="s">
-        <x:v>33</x:v>
+        <x:v>27</x:v>
       </x:c>
     </x:row>
     <x:row r="6" spans="1:7">
       <x:c r="A6" s="0" t="s">
+        <x:v>33</x:v>
+      </x:c>
+      <x:c r="B6" s="0" t="s">
         <x:v>34</x:v>
-      </x:c>
-      <x:c r="B6" s="0" t="s">
-        <x:v>15</x:v>
       </x:c>
       <x:c r="C6" s="0" t="s">
         <x:v>35</x:v>
@@ -736,7 +721,7 @@
         <x:v>38</x:v>
       </x:c>
       <x:c r="G6" s="0" t="s">
-        <x:v>33</x:v>
+        <x:v>20</x:v>
       </x:c>
     </x:row>
     <x:row r="7" spans="1:7">
@@ -744,30 +729,30 @@
         <x:v>39</x:v>
       </x:c>
       <x:c r="B7" s="0" t="s">
-        <x:v>22</x:v>
+        <x:v>40</x:v>
       </x:c>
       <x:c r="C7" s="0" t="s">
-        <x:v>40</x:v>
+        <x:v>41</x:v>
       </x:c>
       <x:c r="D7" s="0" t="s">
-        <x:v>41</x:v>
+        <x:v>42</x:v>
       </x:c>
       <x:c r="E7" s="0" t="s">
-        <x:v>42</x:v>
+        <x:v>43</x:v>
       </x:c>
       <x:c r="F7" s="0" t="s">
-        <x:v>43</x:v>
+        <x:v>44</x:v>
       </x:c>
       <x:c r="G7" s="0" t="s">
-        <x:v>20</x:v>
+        <x:v>13</x:v>
       </x:c>
     </x:row>
     <x:row r="8" spans="1:7">
       <x:c r="A8" s="0" t="s">
-        <x:v>44</x:v>
+        <x:v>45</x:v>
       </x:c>
       <x:c r="B8" s="0" t="s">
-        <x:v>45</x:v>
+        <x:v>22</x:v>
       </x:c>
       <x:c r="C8" s="0" t="s">
         <x:v>46</x:v>
@@ -790,30 +775,30 @@
         <x:v>50</x:v>
       </x:c>
       <x:c r="B9" s="0" t="s">
-        <x:v>28</x:v>
+        <x:v>51</x:v>
       </x:c>
       <x:c r="C9" s="0" t="s">
-        <x:v>51</x:v>
+        <x:v>52</x:v>
       </x:c>
       <x:c r="D9" s="0" t="s">
-        <x:v>52</x:v>
+        <x:v>53</x:v>
       </x:c>
       <x:c r="E9" s="0" t="s">
-        <x:v>53</x:v>
+        <x:v>54</x:v>
       </x:c>
       <x:c r="F9" s="0" t="s">
-        <x:v>54</x:v>
+        <x:v>55</x:v>
       </x:c>
       <x:c r="G9" s="0" t="s">
-        <x:v>13</x:v>
+        <x:v>20</x:v>
       </x:c>
     </x:row>
     <x:row r="10" spans="1:7">
       <x:c r="A10" s="0" t="s">
-        <x:v>55</x:v>
+        <x:v>56</x:v>
       </x:c>
       <x:c r="B10" s="0" t="s">
-        <x:v>56</x:v>
+        <x:v>34</x:v>
       </x:c>
       <x:c r="C10" s="0" t="s">
         <x:v>57</x:v>
@@ -836,7 +821,7 @@
         <x:v>61</x:v>
       </x:c>
       <x:c r="B11" s="0" t="s">
-        <x:v>22</x:v>
+        <x:v>8</x:v>
       </x:c>
       <x:c r="C11" s="0" t="s">
         <x:v>62</x:v>
@@ -851,7 +836,7 @@
         <x:v>65</x:v>
       </x:c>
       <x:c r="G11" s="0" t="s">
-        <x:v>20</x:v>
+        <x:v>13</x:v>
       </x:c>
     </x:row>
     <x:row r="12" spans="1:7">
@@ -859,7 +844,7 @@
         <x:v>66</x:v>
       </x:c>
       <x:c r="B12" s="0" t="s">
-        <x:v>8</x:v>
+        <x:v>51</x:v>
       </x:c>
       <x:c r="C12" s="0" t="s">
         <x:v>67</x:v>
@@ -874,30 +859,7 @@
         <x:v>70</x:v>
       </x:c>
       <x:c r="G12" s="0" t="s">
-        <x:v>13</x:v>
-      </x:c>
-    </x:row>
-    <x:row r="13" spans="1:7">
-      <x:c r="A13" s="0" t="s">
         <x:v>71</x:v>
-      </x:c>
-      <x:c r="B13" s="0" t="s">
-        <x:v>56</x:v>
-      </x:c>
-      <x:c r="C13" s="0" t="s">
-        <x:v>72</x:v>
-      </x:c>
-      <x:c r="D13" s="0" t="s">
-        <x:v>73</x:v>
-      </x:c>
-      <x:c r="E13" s="0" t="s">
-        <x:v>74</x:v>
-      </x:c>
-      <x:c r="F13" s="0" t="s">
-        <x:v>75</x:v>
-      </x:c>
-      <x:c r="G13" s="0" t="s">
-        <x:v>76</x:v>
       </x:c>
     </x:row>
   </x:sheetData>

--- a/Data/Output/Yearly-Report-2023-RO254678.xlsx
+++ b/Data/Output/Yearly-Report-2023-RO254678.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<x:sst xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="72" uniqueCount="72">
+<x:sst xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="77" uniqueCount="77">
   <x:si>
     <x:t>InvoiceNumber</x:t>
   </x:si>
@@ -79,6 +79,24 @@
     <x:t>CAD</x:t>
   </x:si>
   <x:si>
+    <x:t>533442</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Professional Services</x:t>
+  </x:si>
+  <x:si>
+    <x:t>2017-12-22</x:t>
+  </x:si>
+  <x:si>
+    <x:t>116433</x:t>
+  </x:si>
+  <x:si>
+    <x:t>23286.6</x:t>
+  </x:si>
+  <x:si>
+    <x:t>139720</x:t>
+  </x:si>
+  <x:si>
     <x:t>102286</x:t>
   </x:si>
   <x:si>
@@ -116,9 +134,6 @@
   </x:si>
   <x:si>
     <x:t>300111</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Professional Services</x:t>
   </x:si>
   <x:si>
     <x:t>2017-07-06</x:t>
@@ -580,7 +595,7 @@
   <x:sheetPr>
     <x:outlinePr summaryBelow="1" summaryRight="1"/>
   </x:sheetPr>
-  <x:dimension ref="A1:G12"/>
+  <x:dimension ref="A1:G13"/>
   <x:sheetViews>
     <x:sheetView workbookViewId="0"/>
   </x:sheetViews>
@@ -675,15 +690,15 @@
         <x:v>26</x:v>
       </x:c>
       <x:c r="G4" s="0" t="s">
-        <x:v>27</x:v>
+        <x:v>20</x:v>
       </x:c>
     </x:row>
     <x:row r="5" spans="1:7">
       <x:c r="A5" s="0" t="s">
+        <x:v>27</x:v>
+      </x:c>
+      <x:c r="B5" s="0" t="s">
         <x:v>28</x:v>
-      </x:c>
-      <x:c r="B5" s="0" t="s">
-        <x:v>15</x:v>
       </x:c>
       <x:c r="C5" s="0" t="s">
         <x:v>29</x:v>
@@ -698,15 +713,15 @@
         <x:v>32</x:v>
       </x:c>
       <x:c r="G5" s="0" t="s">
-        <x:v>27</x:v>
+        <x:v>33</x:v>
       </x:c>
     </x:row>
     <x:row r="6" spans="1:7">
       <x:c r="A6" s="0" t="s">
-        <x:v>33</x:v>
+        <x:v>34</x:v>
       </x:c>
       <x:c r="B6" s="0" t="s">
-        <x:v>34</x:v>
+        <x:v>15</x:v>
       </x:c>
       <x:c r="C6" s="0" t="s">
         <x:v>35</x:v>
@@ -721,7 +736,7 @@
         <x:v>38</x:v>
       </x:c>
       <x:c r="G6" s="0" t="s">
-        <x:v>20</x:v>
+        <x:v>33</x:v>
       </x:c>
     </x:row>
     <x:row r="7" spans="1:7">
@@ -729,30 +744,30 @@
         <x:v>39</x:v>
       </x:c>
       <x:c r="B7" s="0" t="s">
+        <x:v>22</x:v>
+      </x:c>
+      <x:c r="C7" s="0" t="s">
         <x:v>40</x:v>
       </x:c>
-      <x:c r="C7" s="0" t="s">
+      <x:c r="D7" s="0" t="s">
         <x:v>41</x:v>
       </x:c>
-      <x:c r="D7" s="0" t="s">
+      <x:c r="E7" s="0" t="s">
         <x:v>42</x:v>
       </x:c>
-      <x:c r="E7" s="0" t="s">
+      <x:c r="F7" s="0" t="s">
         <x:v>43</x:v>
       </x:c>
-      <x:c r="F7" s="0" t="s">
-        <x:v>44</x:v>
-      </x:c>
       <x:c r="G7" s="0" t="s">
-        <x:v>13</x:v>
+        <x:v>20</x:v>
       </x:c>
     </x:row>
     <x:row r="8" spans="1:7">
       <x:c r="A8" s="0" t="s">
+        <x:v>44</x:v>
+      </x:c>
+      <x:c r="B8" s="0" t="s">
         <x:v>45</x:v>
-      </x:c>
-      <x:c r="B8" s="0" t="s">
-        <x:v>22</x:v>
       </x:c>
       <x:c r="C8" s="0" t="s">
         <x:v>46</x:v>
@@ -775,30 +790,30 @@
         <x:v>50</x:v>
       </x:c>
       <x:c r="B9" s="0" t="s">
+        <x:v>28</x:v>
+      </x:c>
+      <x:c r="C9" s="0" t="s">
         <x:v>51</x:v>
       </x:c>
-      <x:c r="C9" s="0" t="s">
+      <x:c r="D9" s="0" t="s">
         <x:v>52</x:v>
       </x:c>
-      <x:c r="D9" s="0" t="s">
+      <x:c r="E9" s="0" t="s">
         <x:v>53</x:v>
       </x:c>
-      <x:c r="E9" s="0" t="s">
+      <x:c r="F9" s="0" t="s">
         <x:v>54</x:v>
       </x:c>
-      <x:c r="F9" s="0" t="s">
-        <x:v>55</x:v>
-      </x:c>
       <x:c r="G9" s="0" t="s">
-        <x:v>20</x:v>
+        <x:v>13</x:v>
       </x:c>
     </x:row>
     <x:row r="10" spans="1:7">
       <x:c r="A10" s="0" t="s">
+        <x:v>55</x:v>
+      </x:c>
+      <x:c r="B10" s="0" t="s">
         <x:v>56</x:v>
-      </x:c>
-      <x:c r="B10" s="0" t="s">
-        <x:v>34</x:v>
       </x:c>
       <x:c r="C10" s="0" t="s">
         <x:v>57</x:v>
@@ -821,7 +836,7 @@
         <x:v>61</x:v>
       </x:c>
       <x:c r="B11" s="0" t="s">
-        <x:v>8</x:v>
+        <x:v>22</x:v>
       </x:c>
       <x:c r="C11" s="0" t="s">
         <x:v>62</x:v>
@@ -836,7 +851,7 @@
         <x:v>65</x:v>
       </x:c>
       <x:c r="G11" s="0" t="s">
-        <x:v>13</x:v>
+        <x:v>20</x:v>
       </x:c>
     </x:row>
     <x:row r="12" spans="1:7">
@@ -844,7 +859,7 @@
         <x:v>66</x:v>
       </x:c>
       <x:c r="B12" s="0" t="s">
-        <x:v>51</x:v>
+        <x:v>8</x:v>
       </x:c>
       <x:c r="C12" s="0" t="s">
         <x:v>67</x:v>
@@ -859,7 +874,30 @@
         <x:v>70</x:v>
       </x:c>
       <x:c r="G12" s="0" t="s">
+        <x:v>13</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="13" spans="1:7">
+      <x:c r="A13" s="0" t="s">
         <x:v>71</x:v>
+      </x:c>
+      <x:c r="B13" s="0" t="s">
+        <x:v>56</x:v>
+      </x:c>
+      <x:c r="C13" s="0" t="s">
+        <x:v>72</x:v>
+      </x:c>
+      <x:c r="D13" s="0" t="s">
+        <x:v>73</x:v>
+      </x:c>
+      <x:c r="E13" s="0" t="s">
+        <x:v>74</x:v>
+      </x:c>
+      <x:c r="F13" s="0" t="s">
+        <x:v>75</x:v>
+      </x:c>
+      <x:c r="G13" s="0" t="s">
+        <x:v>76</x:v>
       </x:c>
     </x:row>
   </x:sheetData>
